--- a/Excel Data Analysis/Section#01/Functions in Excel.xlsx
+++ b/Excel Data Analysis/Section#01/Functions in Excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Addition</t>
   </si>
@@ -99,6 +99,60 @@
   </si>
   <si>
     <t>IF Function</t>
+  </si>
+  <si>
+    <t>&lt;CONDITIONAL FUNCTIONS&gt;</t>
+  </si>
+  <si>
+    <t>p1 Salary greater than any one of the others:</t>
+  </si>
+  <si>
+    <t>IF - AND Function</t>
+  </si>
+  <si>
+    <t>p3 Salary greater than all of the others:</t>
+  </si>
+  <si>
+    <t>IF-ERROR Function</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>V-LOOKUP</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Salman</t>
+  </si>
+  <si>
+    <t>Uzaif</t>
+  </si>
+  <si>
+    <t>Rida</t>
+  </si>
+  <si>
+    <t>Sakina</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Salman's gender:</t>
+  </si>
+  <si>
+    <t>Uzaif's Age:</t>
   </si>
 </sst>
 </file>
@@ -134,11 +188,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,17 +477,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
@@ -532,14 +590,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -560,157 +618,157 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f ca="1">RANDBETWEEN(45,75)</f>
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24:F29" ca="1" si="0">RANDBETWEEN(45,75)</f>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="0"/>
         <v>55</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:A29" ca="1" si="1">RANDBETWEEN(45,75)</f>
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="0"/>
         <v>71</v>
       </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
-      </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="0"/>
         <v>60</v>
       </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="0"/>
-        <v>69</v>
-      </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -719,38 +777,38 @@
       </c>
       <c r="D31">
         <f ca="1">AVERAGE(A24:F29)</f>
-        <v>59.611111111111114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60.777777777777779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34">
         <f ca="1">MAX(A24:F29)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35">
         <f ca="1">MIN(A24:F29)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>14</v>
       </c>
@@ -759,113 +817,272 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41">
         <f ca="1">SUM(A24:F29)</f>
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>17</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48">
         <v>1</v>
       </c>
-      <c r="C46">
+      <c r="C48">
         <f ca="1">RANDBETWEEN(5000,15000)</f>
-        <v>9026</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <f t="shared" ref="C47:C49" ca="1" si="2">RANDBETWEEN(5000,15000)</f>
-        <v>14472</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ca="1" si="2"/>
-        <v>8430</v>
+        <v>9486</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:C51" ca="1" si="2">RANDBETWEEN(5000,15000)</f>
+        <v>14627</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="2"/>
+        <v>14541</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>4</v>
       </c>
-      <c r="C49">
+      <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>5531</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" t="str">
-        <f ca="1">IF(C46&gt;C47,"Yes","No")</f>
-        <v>No</v>
+        <v>7075</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" t="str">
-        <f ca="1">IF(C48&gt;C49,"Yes","No")</f>
-        <v>Yes</v>
+      <c r="A53" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D54" t="str">
-        <f ca="1">IF(C49&lt;C46,"Yes","No")</f>
-        <v>Yes</v>
+        <f ca="1">IF(C48&gt;C49,"Yes","No")</f>
+        <v>No</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="str">
+        <f ca="1">IF(C50&gt;C51,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" t="str">
+        <f ca="1">IF(C51&lt;C48,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>22</v>
       </c>
-      <c r="D55" t="str">
-        <f ca="1">IF(C48&lt;C47,"Yes","No")</f>
+      <c r="D57" t="str">
+        <f ca="1">IF(C50&lt;C49,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" t="str">
+        <f ca="1">IF(OR(C48&gt;C49,C48&gt;C50,C48&gt;C51),"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" t="str">
+        <f ca="1">IF(AND(C50&gt;C48,C50&gt;C49,C50&gt;C51),"Yes","No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="e">
+        <f>B69+C69</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="str">
+        <f>IFERROR(B70+C70,"Error!")</f>
+        <v>Error!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76">
+        <v>22</v>
+      </c>
+      <c r="D76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" t="str">
+        <f>VLOOKUP(C81,B75:D78,3)</f>
+        <v>male</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82">
+        <f>VLOOKUP(C82,B75:D78,2)</f>
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B65:C65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
